--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.0114094799196</v>
+        <v>145.317359361255</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.5731490969576</v>
+        <v>198.8296220274135</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.7710801305641</v>
+        <v>179.8536019603007</v>
       </c>
       <c r="AD2" t="n">
-        <v>121011.4094799196</v>
+        <v>145317.359361255</v>
       </c>
       <c r="AE2" t="n">
-        <v>165573.1490969576</v>
+        <v>198829.6220274135</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.540475006505501e-06</v>
+        <v>6.550805709478424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.291087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>149771.080130564</v>
+        <v>179853.6019603007</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.38784588046812</v>
+        <v>95.58353600269716</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.0949295457332</v>
+        <v>130.7816108068341</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.2058696031572</v>
+        <v>118.2999974246082</v>
       </c>
       <c r="AD3" t="n">
-        <v>83387.84588046811</v>
+        <v>95583.53600269716</v>
       </c>
       <c r="AE3" t="n">
-        <v>114094.9295457332</v>
+        <v>130781.6108068341</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.768512611114605e-06</v>
+        <v>8.822996795969865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.185763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>103205.8696031572</v>
+        <v>118299.9974246082</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.9493290925615</v>
+        <v>89.25518946534589</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.86653742658173</v>
+        <v>122.1228878874892</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.38523981957881</v>
+        <v>110.4676508680889</v>
       </c>
       <c r="AD4" t="n">
-        <v>64949.32909256149</v>
+        <v>89255.18946534589</v>
       </c>
       <c r="AE4" t="n">
-        <v>88866.53742658172</v>
+        <v>122122.8878874892</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.17111861876689e-06</v>
+        <v>9.567923318188714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.939814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>80385.23981957881</v>
+        <v>110467.6508680889</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.44821462414225</v>
+        <v>87.75407499692665</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.81264638639509</v>
+        <v>120.0689968473026</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.52736925761276</v>
+        <v>108.6097803061228</v>
       </c>
       <c r="AD5" t="n">
-        <v>63448.21462414225</v>
+        <v>87754.07499692665</v>
       </c>
       <c r="AE5" t="n">
-        <v>86812.64638639509</v>
+        <v>120068.9968473026</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.28308783456583e-06</v>
+        <v>9.775095682573085e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.876157407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>78527.36925761277</v>
+        <v>108609.7803061228</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.51527180316037</v>
+        <v>114.0426960685945</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.8469881329955</v>
+        <v>156.0382479696496</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.0272054059545</v>
+        <v>141.1461765845255</v>
       </c>
       <c r="AD2" t="n">
-        <v>90515.27180316037</v>
+        <v>114042.6960685945</v>
       </c>
       <c r="AE2" t="n">
-        <v>123846.9881329955</v>
+        <v>156038.2479696496</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.190655024980944e-06</v>
+        <v>7.988035231455501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>112027.2054059545</v>
+        <v>141146.1765845255</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.17482084615949</v>
+        <v>85.61690425702201</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.07033284119133</v>
+        <v>117.1448255556478</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.95133967181025</v>
+        <v>105.9646878184425</v>
       </c>
       <c r="AD3" t="n">
-        <v>62174.82084615949</v>
+        <v>85616.90425702202</v>
       </c>
       <c r="AE3" t="n">
-        <v>85070.33284119132</v>
+        <v>117144.8255556478</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.303595728000815e-06</v>
+        <v>1.01094719742196e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.962962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>76951.33967181024</v>
+        <v>105964.6878184425</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.76877246633038</v>
+        <v>83.21085587719291</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.77827130054779</v>
+        <v>113.8527640150043</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.97346786416726</v>
+        <v>102.9868160107995</v>
       </c>
       <c r="AD4" t="n">
-        <v>59768.77246633038</v>
+        <v>83210.85587719291</v>
       </c>
       <c r="AE4" t="n">
-        <v>81778.27130054779</v>
+        <v>113852.7640150043</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.493368824200395e-06</v>
+        <v>1.047120878371313e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.861689814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>73973.46786416727</v>
+        <v>102986.8160107995</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.2045123576203</v>
+        <v>72.04605648543016</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.06027279132631</v>
+        <v>98.57659293101587</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.373818686348</v>
+        <v>89.16858125482133</v>
       </c>
       <c r="AD2" t="n">
-        <v>51204.5123576203</v>
+        <v>72046.05648543016</v>
       </c>
       <c r="AE2" t="n">
-        <v>70060.27279132631</v>
+        <v>98576.59293101587</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.852990819376809e-06</v>
+        <v>1.246533870040092e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.997685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>63373.81868634799</v>
+        <v>89168.58125482133</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.37613721333955</v>
+        <v>79.3480227680908</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.55524747753243</v>
+        <v>108.567465338964</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.62646596391416</v>
+        <v>98.2059388224356</v>
       </c>
       <c r="AD2" t="n">
-        <v>68376.13721333955</v>
+        <v>79348.0227680908</v>
       </c>
       <c r="AE2" t="n">
-        <v>93555.24747753244</v>
+        <v>108567.465338964</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.450840476794547e-06</v>
+        <v>1.106709069603166e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.078703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>84626.46596391416</v>
+        <v>98205.93882243559</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.18186862115416</v>
+        <v>76.04011985898293</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.1340229827793</v>
+        <v>104.0414466443481</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.05877587707431</v>
+        <v>94.11187699972523</v>
       </c>
       <c r="AD3" t="n">
-        <v>54181.86862115416</v>
+        <v>76040.11985898293</v>
       </c>
       <c r="AE3" t="n">
-        <v>74134.02298277929</v>
+        <v>104041.4466443481</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.789890468041458e-06</v>
+        <v>1.175547939857995e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.899305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>67058.77587707431</v>
+        <v>94111.87699972522</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.44739724681539</v>
+        <v>69.49397505235979</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.33855154713353</v>
+        <v>95.0847225244041</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.57571434686821</v>
+        <v>86.0099700589446</v>
       </c>
       <c r="AD2" t="n">
-        <v>59447.3972468154</v>
+        <v>69493.97505235979</v>
       </c>
       <c r="AE2" t="n">
-        <v>81338.55154713354</v>
+        <v>95084.7225244041</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.770682648032015e-06</v>
+        <v>1.285018310411257e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.156828703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>73575.7143468682</v>
+        <v>86009.9700589446</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.72205058973742</v>
+        <v>118.4765112449208</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.6028884587691</v>
+        <v>162.1047895000166</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.2337706830949</v>
+        <v>146.6337359056807</v>
       </c>
       <c r="AD2" t="n">
-        <v>94722.05058973742</v>
+        <v>118476.5112449208</v>
       </c>
       <c r="AE2" t="n">
-        <v>129602.8884587691</v>
+        <v>162104.7895000166</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.016253248049351e-06</v>
+        <v>7.593785725400142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.880208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>117233.7706830949</v>
+        <v>146633.7359056807</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.67091827766451</v>
+        <v>88.54823811380724</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.90453286965</v>
+        <v>121.1556058598221</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.89259148703368</v>
+        <v>109.5926848795531</v>
       </c>
       <c r="AD3" t="n">
-        <v>76670.91827766452</v>
+        <v>88548.23811380724</v>
       </c>
       <c r="AE3" t="n">
-        <v>104904.53286965</v>
+        <v>121155.6058598221</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.139171683061783e-06</v>
+        <v>9.716959105148451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.032407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>94892.59148703369</v>
+        <v>109592.6848795531</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.66628030186104</v>
+        <v>84.33540010247278</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.00628111637143</v>
+        <v>115.3914150354213</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.0842781466917</v>
+        <v>104.3786203373387</v>
       </c>
       <c r="AD4" t="n">
-        <v>60666.28030186104</v>
+        <v>84335.40010247278</v>
       </c>
       <c r="AE4" t="n">
-        <v>83006.28111637142</v>
+        <v>115391.4150354213</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.445099116305964e-06</v>
+        <v>1.029539558116158e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.861689814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>75084.27814669171</v>
+        <v>104378.6203373387</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.42052656528315</v>
+        <v>77.84911233428822</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.93354177832462</v>
+        <v>106.5165899561751</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.30479673845039</v>
+        <v>96.35079610775766</v>
       </c>
       <c r="AD2" t="n">
-        <v>58420.52656528314</v>
+        <v>77849.11233428822</v>
       </c>
       <c r="AE2" t="n">
-        <v>79933.54177832462</v>
+        <v>106516.5899561751</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.631053404849779e-06</v>
+        <v>1.290956579320873e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.310185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>72304.79673845039</v>
+        <v>96350.79610775766</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.20757438542391</v>
+        <v>101.8275635181454</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.375297665654</v>
+        <v>139.3249647205186</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.03211136215712</v>
+        <v>126.0279856314459</v>
       </c>
       <c r="AD2" t="n">
-        <v>79207.57438542391</v>
+        <v>101827.5635181454</v>
       </c>
       <c r="AE2" t="n">
-        <v>108375.297665654</v>
+        <v>139324.9647205186</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.748018770669287e-06</v>
+        <v>9.3060511732049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>98032.11136215713</v>
+        <v>126027.9856314459</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.01835737462854</v>
+        <v>79.72359785337061</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.01503203233308</v>
+        <v>109.081343739847</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.56938686997033</v>
+        <v>98.67077338997129</v>
       </c>
       <c r="AD3" t="n">
-        <v>57018.35737462854</v>
+        <v>79723.59785337061</v>
       </c>
       <c r="AE3" t="n">
-        <v>78015.03203233308</v>
+        <v>109081.343739847</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.645430255088069e-06</v>
+        <v>1.106496528049806e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.87037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>70569.38686997033</v>
+        <v>98670.77338997129</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.64056319543886</v>
+        <v>109.9323177274477</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.5454408758341</v>
+        <v>150.4142469862011</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.2316303782466</v>
+        <v>136.0589223616006</v>
       </c>
       <c r="AD2" t="n">
-        <v>86640.56319543885</v>
+        <v>109932.3177274477</v>
       </c>
       <c r="AE2" t="n">
-        <v>118545.4408758341</v>
+        <v>150414.2469862011</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.36389888686362e-06</v>
+        <v>8.390481835983123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.637152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>107231.6303782466</v>
+        <v>136058.9223616006</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.7226726417688</v>
+        <v>82.92908631920602</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.71519548680193</v>
+        <v>113.4672344749713</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.91641191755787</v>
+        <v>102.638080868973</v>
       </c>
       <c r="AD3" t="n">
-        <v>59722.6726417688</v>
+        <v>82929.08631920602</v>
       </c>
       <c r="AE3" t="n">
-        <v>81715.19548680194</v>
+        <v>113467.2344749713</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.471779761028098e-06</v>
+        <v>1.052060780638365e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.899305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>73916.41191755787</v>
+        <v>102638.080868973</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.01500235550548</v>
+        <v>82.22141603294271</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.74692978092732</v>
+        <v>112.4989687690966</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.04055613168215</v>
+        <v>101.7622250830973</v>
       </c>
       <c r="AD4" t="n">
-        <v>59015.00235550548</v>
+        <v>82221.41603294271</v>
       </c>
       <c r="AE4" t="n">
-        <v>80746.92978092731</v>
+        <v>112498.9687690967</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.526954422385003e-06</v>
+        <v>1.062669229778083e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.87037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>73040.55613168215</v>
+        <v>101762.2250830973</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.6608937950856</v>
+        <v>139.7613533278038</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.2523374888789</v>
+        <v>191.2276494587625</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.1489565075344</v>
+        <v>172.9771509841638</v>
       </c>
       <c r="AD2" t="n">
-        <v>115660.8937950856</v>
+        <v>139761.3533278038</v>
       </c>
       <c r="AE2" t="n">
-        <v>158252.3374888789</v>
+        <v>191227.6494587625</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.704564245082593e-06</v>
+        <v>6.90132221063753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.134837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>143148.9565075344</v>
+        <v>172977.1509841638</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.31193668118402</v>
+        <v>93.40488162910447</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.2545789966238</v>
+        <v>127.8006797774386</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6365981239969</v>
+        <v>115.6035622688942</v>
       </c>
       <c r="AD3" t="n">
-        <v>81311.93668118402</v>
+        <v>93404.88162910446</v>
       </c>
       <c r="AE3" t="n">
-        <v>111254.5789966238</v>
+        <v>127800.6797774386</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.876246041570298e-06</v>
+        <v>9.084076529619518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.142361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>100636.5981239969</v>
+        <v>115603.5622688942</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.95855848833913</v>
+        <v>87.05892851250626</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.14267725928546</v>
+        <v>119.1178667596206</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.92134104368668</v>
+        <v>107.7494247390895</v>
       </c>
       <c r="AD4" t="n">
-        <v>62958.55848833913</v>
+        <v>87058.92851250626</v>
       </c>
       <c r="AE4" t="n">
-        <v>86142.67725928547</v>
+        <v>119117.8667596206</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.29059355076965e-06</v>
+        <v>9.855974512480946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.896412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>77921.34104368668</v>
+        <v>107749.4247390895</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.60412542193151</v>
+        <v>86.70449544609865</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.6577263013435</v>
+        <v>118.6329158016787</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.4826731245376</v>
+        <v>107.3107568199404</v>
       </c>
       <c r="AD5" t="n">
-        <v>62604.12542193151</v>
+        <v>86704.49544609865</v>
       </c>
       <c r="AE5" t="n">
-        <v>85657.7263013435</v>
+        <v>118632.9158016787</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.324156387211759e-06</v>
+        <v>9.918499531151465e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.876157407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>77482.6731245376</v>
+        <v>107310.7568199404</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.94915907635387</v>
+        <v>83.06973207401381</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.44401362110577</v>
+        <v>113.659672201552</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.04865512817277</v>
+        <v>102.8121526090169</v>
       </c>
       <c r="AD2" t="n">
-        <v>71949.15907635387</v>
+        <v>83069.73207401381</v>
       </c>
       <c r="AE2" t="n">
-        <v>98444.01362110577</v>
+        <v>113659.672201552</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202388975357715e-06</v>
+        <v>1.042817494060029e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.185763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>89048.65512817277</v>
+        <v>102812.152609017</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.1372724607478</v>
+        <v>77.29289858439397</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.44124866555332</v>
+        <v>105.7555537651513</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.24124177538756</v>
+        <v>95.662392142684</v>
       </c>
       <c r="AD3" t="n">
-        <v>55137.2724607478</v>
+        <v>77292.89858439397</v>
       </c>
       <c r="AE3" t="n">
-        <v>75441.24866555331</v>
+        <v>105755.5537651513</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.751389401586596e-06</v>
+        <v>1.152864484285038e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.881944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>68241.24177538756</v>
+        <v>95662.392142684</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.38486714240191</v>
+        <v>73.5900243015741</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.67528628144164</v>
+        <v>100.6891178121157</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.83469755565289</v>
+        <v>91.07948972621693</v>
       </c>
       <c r="AD2" t="n">
-        <v>52384.86714240191</v>
+        <v>73590.0243015741</v>
       </c>
       <c r="AE2" t="n">
-        <v>71675.28628144164</v>
+        <v>100689.1178121157</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.820062949807918e-06</v>
+        <v>1.217593566561149e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.965856481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>64834.69755565289</v>
+        <v>91079.48972621694</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.40572520206593</v>
+        <v>73.61088236123813</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.70382519886658</v>
+        <v>100.7176567295406</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.86051275885343</v>
+        <v>91.10530492941747</v>
       </c>
       <c r="AD3" t="n">
-        <v>52405.72520206593</v>
+        <v>73610.88236123812</v>
       </c>
       <c r="AE3" t="n">
-        <v>71703.82519886659</v>
+        <v>100717.6567295406</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.837781216850015e-06</v>
+        <v>1.221300338832706e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.957175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>64860.51275885344</v>
+        <v>91105.30492941747</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.75514929963209</v>
+        <v>71.02062401107699</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.12787559974518</v>
+        <v>97.1735509807186</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.19426782323124</v>
+        <v>87.89944365907824</v>
       </c>
       <c r="AD2" t="n">
-        <v>60755.14929963209</v>
+        <v>71020.62401107699</v>
       </c>
       <c r="AE2" t="n">
-        <v>83127.87559974518</v>
+        <v>97173.5509807186</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.813416952999239e-06</v>
+        <v>1.263752998586087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75194.26782323125</v>
+        <v>87899.44365907824</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.42843198193953</v>
+        <v>76.45318666402042</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.57611420127057</v>
+        <v>104.6066228702214</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.07692014418836</v>
+        <v>94.62311359983121</v>
       </c>
       <c r="AD2" t="n">
-        <v>57428.43198193953</v>
+        <v>76453.18666402042</v>
       </c>
       <c r="AE2" t="n">
-        <v>78576.11420127057</v>
+        <v>104606.6228702214</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.350937303685927e-06</v>
+        <v>1.272734865693839e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.582175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>71076.92014418836</v>
+        <v>94623.11359983121</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.91045972728348</v>
+        <v>105.9569723295903</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.4417487501556</v>
+        <v>144.9750040329941</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.6150274659643</v>
+        <v>131.1387931218205</v>
       </c>
       <c r="AD2" t="n">
-        <v>82910.45972728348</v>
+        <v>105956.9723295903</v>
       </c>
       <c r="AE2" t="n">
-        <v>113441.7487501556</v>
+        <v>144975.0040329941</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546721415134174e-06</v>
+        <v>8.82326843689604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.524305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>102615.0274659643</v>
+        <v>131138.7931218205</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.35902917946783</v>
+        <v>81.32020092720306</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.84939834197898</v>
+        <v>111.2658865026198</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.2286838335735</v>
+        <v>100.6468264574909</v>
       </c>
       <c r="AD3" t="n">
-        <v>58359.02917946783</v>
+        <v>81320.20092720306</v>
       </c>
       <c r="AE3" t="n">
-        <v>79849.39834197899</v>
+        <v>111265.8865026198</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.559251973329585e-06</v>
+        <v>1.078816315988946e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.881944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>72228.68383357349</v>
+        <v>100646.8264574909</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.03915303552932</v>
+        <v>81.00032478326455</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.41172968990303</v>
+        <v>110.8282178505439</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.83278566337971</v>
+        <v>100.2509282872971</v>
       </c>
       <c r="AD4" t="n">
-        <v>58039.15303552932</v>
+        <v>81000.32478326454</v>
       </c>
       <c r="AE4" t="n">
-        <v>79411.72968990303</v>
+        <v>110828.2178505439</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.59337412573663e-06</v>
+        <v>1.085437986481664e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.864583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>71832.78566337971</v>
+        <v>100250.9282872971</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.2605671199065</v>
+        <v>135.1489771821345</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.2316164031897</v>
+        <v>184.9167929325864</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.7028445921264</v>
+        <v>167.2685937475013</v>
       </c>
       <c r="AD2" t="n">
-        <v>111260.5671199065</v>
+        <v>135148.9771821345</v>
       </c>
       <c r="AE2" t="n">
-        <v>152231.6164031897</v>
+        <v>184916.7929325865</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.850729192349897e-06</v>
+        <v>7.225478333449479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>137702.8445921264</v>
+        <v>167268.5937475013</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.91842313877257</v>
+        <v>90.90534335144793</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.9796681735331</v>
+        <v>124.3807012341044</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.6742401934947</v>
+        <v>112.5099816777648</v>
       </c>
       <c r="AD3" t="n">
-        <v>78918.42313877257</v>
+        <v>90905.34335144793</v>
       </c>
       <c r="AE3" t="n">
-        <v>107979.6681735331</v>
+        <v>124380.7012341044</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.015342576307339e-06</v>
+        <v>9.410749837181119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.078703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>97674.2401934947</v>
+        <v>112509.9816777648</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.68385547330197</v>
+        <v>85.57217602697897</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.39857235818441</v>
+        <v>117.0836264180327</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.34369106647954</v>
+        <v>105.9093294406278</v>
       </c>
       <c r="AD4" t="n">
-        <v>61683.85547330197</v>
+        <v>85572.17602697897</v>
       </c>
       <c r="AE4" t="n">
-        <v>84398.57235818441</v>
+        <v>117083.6264180327</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.382587057085927e-06</v>
+        <v>1.009984452714691e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.87037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>76343.69106647954</v>
+        <v>105909.3294406278</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.81720252394222</v>
+        <v>85.70552307761923</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.58102367572702</v>
+        <v>117.2660777355753</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.50872948634797</v>
+        <v>106.0743678604962</v>
       </c>
       <c r="AD5" t="n">
-        <v>61817.20252394222</v>
+        <v>85705.52307761923</v>
       </c>
       <c r="AE5" t="n">
-        <v>84581.02367572702</v>
+        <v>117266.0777355753</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.381199214571358e-06</v>
+        <v>1.009724039023716e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.87037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>76508.72948634798</v>
+        <v>106074.3678604962</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.28552551548343</v>
+        <v>84.52066009592939</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.6947803212484</v>
+        <v>115.6448959315626</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.03899777833408</v>
+        <v>104.607909372515</v>
       </c>
       <c r="AD2" t="n">
-        <v>66285.52551548343</v>
+        <v>84520.66009592939</v>
       </c>
       <c r="AE2" t="n">
-        <v>90694.7803212484</v>
+        <v>115644.8959315626</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.728341628114171e-06</v>
+        <v>1.182522358028183e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.19849537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>82038.99777833407</v>
+        <v>104607.909372515</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.44558537609721</v>
+        <v>75.98813847021115</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.49485188125433</v>
+        <v>103.9703234149735</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.38516777190554</v>
+        <v>94.04754167154009</v>
       </c>
       <c r="AD2" t="n">
-        <v>54445.58537609722</v>
+        <v>75988.13847021115</v>
       </c>
       <c r="AE2" t="n">
-        <v>74494.85188125433</v>
+        <v>103970.3234149736</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.671798583444942e-06</v>
+        <v>1.167984100067189e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.997685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>67385.16777190554</v>
+        <v>94047.54167154009</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.3787946132098</v>
+        <v>74.92134770732373</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.03522169598561</v>
+        <v>102.5106932297048</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.06484264291457</v>
+        <v>92.72721654254913</v>
       </c>
       <c r="AD3" t="n">
-        <v>53378.7946132098</v>
+        <v>74921.34770732373</v>
       </c>
       <c r="AE3" t="n">
-        <v>73035.22169598562</v>
+        <v>102510.6932297048</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.808950772990616e-06</v>
+        <v>1.196227623584812e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.92824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>66064.84264291458</v>
+        <v>92727.21654254913</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.30607700698894</v>
+        <v>86.56747384431338</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.0370968305653</v>
+        <v>118.4454368011497</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.20338092255575</v>
+        <v>107.1411705520934</v>
       </c>
       <c r="AD2" t="n">
-        <v>75306.07700698894</v>
+        <v>86567.47384431338</v>
       </c>
       <c r="AE2" t="n">
-        <v>103037.0968305653</v>
+        <v>118445.4368011497</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.985228418767032e-06</v>
+        <v>9.87665533686947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.284143518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>93203.38092255575</v>
+        <v>107141.1705520934</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.00942160225872</v>
+        <v>78.44669540523391</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.63456159747255</v>
+        <v>107.334229477347</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.32066659591001</v>
+        <v>97.09040126059347</v>
       </c>
       <c r="AD3" t="n">
-        <v>56009.42160225872</v>
+        <v>78446.69540523391</v>
       </c>
       <c r="AE3" t="n">
-        <v>76634.56159747255</v>
+        <v>107334.229477347</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.695786759887417e-06</v>
+        <v>1.128440223279194e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.876157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>69320.66659591001</v>
+        <v>97090.40126059347</v>
       </c>
     </row>
   </sheetData>
